--- a/src/outputs/data_countries.xlsx
+++ b/src/outputs/data_countries.xlsx
@@ -395,13 +395,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="n">
         <v>13</v>
       </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
         <v>36</v>
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D34" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D36" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D37" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D39" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
         <v>41</v>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
         <v>36</v>
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
         <v>39</v>
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D58" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="B59" t="n">
+        <v>24</v>
+      </c>
+      <c r="C59" t="n">
         <v>19</v>
       </c>
-      <c r="C59" t="n">
-        <v>21</v>
-      </c>
       <c r="D59" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C60" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D60" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>24</v>
+      </c>
+      <c r="C62" t="n">
         <v>19</v>
       </c>
-      <c r="C62" t="n">
-        <v>23</v>
-      </c>
       <c r="D62" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D65" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
         <v>36</v>
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C71" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D72" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
+        <v>21</v>
+      </c>
+      <c r="C73" t="n">
         <v>16</v>
       </c>
-      <c r="C73" t="n">
-        <v>18</v>
-      </c>
       <c r="D73" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D78" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D80" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -1659,13 +1659,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C85" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D85" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D86" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1755,13 +1755,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
@@ -1787,13 +1787,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C89" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D89" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D91" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D92" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93">
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D93" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
@@ -1899,13 +1899,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
@@ -1915,13 +1915,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D97" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
@@ -1931,13 +1931,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C98" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D99" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100">
@@ -1963,13 +1963,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101">
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D101" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -1995,13 +1995,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D102" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
@@ -2027,13 +2027,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D104" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C105" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D105" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C106" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D106" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107">
@@ -2075,13 +2075,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D107" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C109" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D109" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110">
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C110" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111">
@@ -2139,13 +2139,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D111" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D112" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113">
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C113" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D113" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D114" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C115" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C116" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117">
@@ -2235,13 +2235,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C117" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C118" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -2267,13 +2267,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D119" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C120" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D120" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C121" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C122" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D122" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C123" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D123" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C124" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D124" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
@@ -2363,13 +2363,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C125" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126">
@@ -2379,13 +2379,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C126" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D126" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127">
@@ -2395,13 +2395,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C127" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D127" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128">
@@ -2411,13 +2411,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C128" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D128" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C129" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D129" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130">
@@ -2443,13 +2443,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C130" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D130" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
@@ -2459,13 +2459,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C131" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D131" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C132" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D132" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
@@ -2491,13 +2491,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C133" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D133" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134">
@@ -2507,13 +2507,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C134" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D134" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135">
@@ -2523,13 +2523,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C135" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D135" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136">
@@ -2539,13 +2539,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C136" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D136" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137">
@@ -2555,10 +2555,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D137" t="n">
         <v>36</v>
@@ -2571,13 +2571,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C138" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D138" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
@@ -2587,13 +2587,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D139" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140">
@@ -2603,13 +2603,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C140" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D140" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141">
@@ -2619,13 +2619,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D141" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C142" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D142" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C143" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D143" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C144" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D144" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145">
@@ -2683,13 +2683,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D145" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
@@ -2699,13 +2699,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C146" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
@@ -2715,13 +2715,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C147" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
@@ -2731,13 +2731,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C148" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D148" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C149" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D149" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150">
@@ -2763,13 +2763,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C150" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D150" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151">
@@ -2779,13 +2779,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C151" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D151" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152">
@@ -2795,13 +2795,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C152" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D152" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153">
@@ -2811,13 +2811,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C153" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C154" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D154" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C155" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D155" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156">
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C156" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D156" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
@@ -2875,13 +2875,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C157" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D157" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C158" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D158" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C159" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D159" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160">
@@ -2923,13 +2923,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C160" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D160" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
@@ -2939,13 +2939,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C161" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D161" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C162" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D162" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D163" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164">
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C164" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D164" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C165" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D165" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166">
@@ -3019,13 +3019,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C166" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D166" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167">
@@ -3035,13 +3035,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C167" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D167" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168">
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C168" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D168" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169">
@@ -3067,13 +3067,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C169" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D169" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170">
@@ -3083,10 +3083,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C170" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D170" t="n">
         <v>36</v>
@@ -3099,13 +3099,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C171" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D171" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172">
@@ -3115,13 +3115,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C172" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173">
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C173" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D173" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C174" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D174" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175">
@@ -3163,13 +3163,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C175" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D175" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176">
@@ -3179,13 +3179,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C176" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D176" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="177">
@@ -3195,13 +3195,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C177" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C178" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D178" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179">
@@ -3227,13 +3227,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C179" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D179" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180">
@@ -3243,13 +3243,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C180" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D180" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181">
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C181" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D181" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182">
@@ -3275,13 +3275,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C182" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D182" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183">
@@ -3291,13 +3291,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C183" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D183" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C184" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D184" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
@@ -3323,10 +3323,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C185" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D185" t="n">
         <v>36</v>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C186" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D186" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187">
@@ -3355,13 +3355,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C187" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D187" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188">
@@ -3371,13 +3371,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C188" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D188" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C189" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D189" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190">
@@ -3403,13 +3403,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C190" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D190" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191">
@@ -3419,13 +3419,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C191" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D191" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="192">
@@ -3435,13 +3435,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C192" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D192" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193">
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C193" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D193" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194">
@@ -3467,13 +3467,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C194" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D194" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="195">
@@ -3483,13 +3483,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C195" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D195" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196">
@@ -3499,13 +3499,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C196" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D196" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197">
@@ -3515,13 +3515,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C197" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D197" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198">
@@ -3531,13 +3531,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C198" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D198" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C199" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D199" t="n">
         <v>31</v>
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C200" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D200" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C201" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D201" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202">
@@ -3595,13 +3595,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C202" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D202" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="203">
@@ -3611,13 +3611,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C203" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D203" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C204" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D204" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C205" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D205" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206">
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C206" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D206" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C207" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D207" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208">
@@ -3691,13 +3691,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C208" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D208" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209">
@@ -3707,13 +3707,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C209" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D209" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210">
@@ -3723,13 +3723,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C210" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D210" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C211" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D211" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212">
@@ -3755,13 +3755,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C212" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D212" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="213">
@@ -3771,13 +3771,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C213" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D213" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C214" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D214" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215">
@@ -3803,13 +3803,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C215" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D215" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C216" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D216" t="n">
         <v>36</v>
@@ -3835,13 +3835,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C217" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D217" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218">
@@ -3851,13 +3851,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C218" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D218" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
